--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3794.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3794.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.016433378937474</v>
+        <v>0.8258586525917053</v>
       </c>
       <c r="B1">
-        <v>2.221949535224636</v>
+        <v>5.263033866882324</v>
       </c>
       <c r="C1">
-        <v>2.354811497047856</v>
+        <v>3.676397562026978</v>
       </c>
       <c r="D1">
-        <v>3.173040147635021</v>
+        <v>2.267486095428467</v>
       </c>
       <c r="E1">
-        <v>2.978795912815954</v>
+        <v>1.937081694602966</v>
       </c>
     </row>
   </sheetData>
